--- a/raw_data/20200818_saline/20200818_Sensor2_Test_29.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_29.xlsx
@@ -1,1232 +1,1648 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6C0868-15FD-41EE-B98D-B7D5C6509A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>25573.006709</v>
+        <v>25573.006709000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.103613</v>
+        <v>7.1036130000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.417000</v>
+        <v>-311.41699999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>25583.686566</v>
       </c>
       <c r="G2" s="1">
-        <v>7.106580</v>
+        <v>7.1065800000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.360000</v>
+        <v>1270.3599999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-269.093000</v>
+        <v>-269.09300000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>25593.550009</v>
+        <v>25593.550008999999</v>
       </c>
       <c r="L2" s="1">
-        <v>7.109319</v>
+        <v>7.1093190000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.420000</v>
+        <v>1305.42</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.764000</v>
+        <v>-204.76400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>25603.746267</v>
+        <v>25603.746266999999</v>
       </c>
       <c r="Q2" s="1">
         <v>7.112152</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.150000</v>
+        <v>1317.15</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.041000</v>
+        <v>-186.041</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>25613.967822</v>
+        <v>25613.967821999999</v>
       </c>
       <c r="V2" s="1">
-        <v>7.114991</v>
+        <v>7.1149909999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.967000</v>
+        <v>-171.96700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>25624.045041</v>
+        <v>25624.045041000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.117790</v>
+        <v>7.1177900000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.160000</v>
+        <v>1347.16</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.459000</v>
+        <v>-169.459</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>25634.286435</v>
+        <v>25634.286435000002</v>
       </c>
       <c r="AF2" s="1">
         <v>7.120635</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.444000</v>
+        <v>-178.44399999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>25644.439084</v>
+        <v>25644.439084000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.123455</v>
+        <v>7.1234549999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.600000</v>
+        <v>1380.6</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.466000</v>
+        <v>-208.46600000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>25654.984488</v>
+        <v>25654.984487999998</v>
       </c>
       <c r="AP2" s="1">
         <v>7.126385</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.140000</v>
+        <v>1402.14</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.168000</v>
+        <v>-252.16800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>25665.996535</v>
+        <v>25665.996534999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.129443</v>
+        <v>7.1294430000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.640000</v>
+        <v>1426.64</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.070000</v>
+        <v>-312.07</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>25677.143259</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.132540</v>
+        <v>7.1325399999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.900000</v>
+        <v>1445.9</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.118000</v>
+        <v>-364.11799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>25688.043848</v>
+        <v>25688.043848000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.135568</v>
+        <v>7.1355680000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.050000</v>
+        <v>1531.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.192000</v>
+        <v>-612.19200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>25699.067421</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.138630</v>
+        <v>7.13863</v>
       </c>
       <c r="BK2" s="1">
-        <v>1685.340000</v>
+        <v>1685.34</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1056.820000</v>
+        <v>-1056.82</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>25710.157968</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.141711</v>
+        <v>7.1417109999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.470000</v>
+        <v>1979.47</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1826.930000</v>
+        <v>-1826.93</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>25721.193484</v>
+        <v>25721.193483999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.144776</v>
+        <v>7.1447760000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2364.000000</v>
+        <v>2364</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2717.060000</v>
+        <v>-2717.06</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>25732.257218</v>
+        <v>25732.257217999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.147849</v>
+        <v>7.1478489999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.170000</v>
+        <v>2850.17</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3687.900000</v>
+        <v>-3687.9</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>25743.155315</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.150876</v>
+        <v>7.1508760000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4259.320000</v>
+        <v>4259.32</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6030.960000</v>
+        <v>-6030.96</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>25573.695156</v>
+        <v>25573.695156000002</v>
       </c>
       <c r="B3" s="1">
-        <v>7.103804</v>
+        <v>7.1038040000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.810000</v>
+        <v>1243.81</v>
       </c>
       <c r="D3" s="1">
-        <v>-311.547000</v>
+        <v>-311.54700000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>25584.064055</v>
+        <v>25584.064054999999</v>
       </c>
       <c r="G3" s="1">
-        <v>7.106684</v>
+        <v>7.1066839999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.692000</v>
+        <v>-268.69200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>25593.904649</v>
       </c>
       <c r="L3" s="1">
-        <v>7.109418</v>
+        <v>7.1094179999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.260000</v>
+        <v>1305.26</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.513000</v>
+        <v>-204.51300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>25604.097931</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.112249</v>
+        <v>7.1122490000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.140000</v>
+        <v>1317.14</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.127000</v>
+        <v>-186.12700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>25614.305635</v>
+        <v>25614.305635000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.115085</v>
+        <v>7.1150849999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.130000</v>
+        <v>1330.13</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.962000</v>
+        <v>-171.96199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>25624.425473</v>
+        <v>25624.425472999999</v>
       </c>
       <c r="AA3" s="1">
         <v>7.117896</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.320000</v>
+        <v>1347.32</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.208000</v>
+        <v>-169.208</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>25634.699329</v>
+        <v>25634.699328999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.120750</v>
+        <v>7.1207500000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.170000</v>
+        <v>1360.17</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.445000</v>
+        <v>-178.44499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>25644.852213</v>
+        <v>25644.852212999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.123570</v>
+        <v>7.12357</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.570000</v>
+        <v>1380.57</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.499000</v>
+        <v>-208.499</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>25655.433367</v>
+        <v>25655.433367000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.126509</v>
+        <v>7.1265090000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.184000</v>
+        <v>-252.184</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>25666.388505</v>
+        <v>25666.388504999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.129552</v>
+        <v>7.1295520000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.630000</v>
+        <v>1426.63</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.031000</v>
+        <v>-312.03100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>25677.508316</v>
+        <v>25677.508315999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.132641</v>
+        <v>7.1326409999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.116000</v>
+        <v>-364.11599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>25688.406908</v>
+        <v>25688.406908000001</v>
       </c>
       <c r="BE3" s="1">
         <v>7.135669</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.040000</v>
+        <v>1531.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.141000</v>
+        <v>-612.14099999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>25699.446366</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.138735</v>
+        <v>7.1387349999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1685.230000</v>
+        <v>1685.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1056.810000</v>
+        <v>-1056.81</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>25710.586015</v>
+        <v>25710.586015000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.141829</v>
+        <v>7.1418290000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.340000</v>
+        <v>1979.34</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1827.200000</v>
+        <v>-1827.2</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>25721.688000</v>
+        <v>25721.687999999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.144913</v>
+        <v>7.1449129999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2363.640000</v>
+        <v>2363.64</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2716.420000</v>
+        <v>-2716.42</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>25732.701137</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.147973</v>
+        <v>7.1479730000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.130000</v>
+        <v>2849.13</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3687.250000</v>
+        <v>-3687.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>25743.748067</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.151041</v>
+        <v>7.1510410000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4270.740000</v>
+        <v>4270.74</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6014.760000</v>
+        <v>-6014.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>25574.032931</v>
+        <v>25574.032931000002</v>
       </c>
       <c r="B4" s="1">
         <v>7.103898</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.860000</v>
+        <v>1243.8599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.652000</v>
+        <v>-311.65199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>25584.407253</v>
+        <v>25584.407253000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.106780</v>
+        <v>7.1067799999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.220000</v>
+        <v>1269.22</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.036000</v>
+        <v>-269.036</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>25594.250360</v>
+        <v>25594.250359999998</v>
       </c>
       <c r="L4" s="1">
-        <v>7.109514</v>
+        <v>7.1095139999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.320000</v>
+        <v>1305.32</v>
       </c>
       <c r="N4" s="1">
-        <v>-204.891000</v>
+        <v>-204.89099999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>25604.445164</v>
+        <v>25604.445164000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.112346</v>
+        <v>7.1123459999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.150000</v>
+        <v>1317.15</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.126000</v>
+        <v>-186.126</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>25614.718270</v>
+        <v>25614.718270000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.115200</v>
+        <v>7.1151999999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.121000</v>
+        <v>-172.12100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>25624.832688</v>
+        <v>25624.832687999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.118009</v>
+        <v>7.1180089999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.847000</v>
+        <v>-168.84700000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>25635.049282</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.120847</v>
+        <v>7.1208470000000004</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.130000</v>
+        <v>1360.13</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.436000</v>
+        <v>-178.43600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>25645.195947</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.123666</v>
+        <v>7.1236660000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.463000</v>
+        <v>-208.46299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>25655.796454</v>
+        <v>25655.796453999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.126610</v>
+        <v>7.1266100000000003</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.163000</v>
+        <v>-252.16300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>25666.754056</v>
+        <v>25666.754056000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.129654</v>
+        <v>7.1296540000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.650000</v>
+        <v>1426.65</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.051000</v>
+        <v>-312.05099999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>25677.864938</v>
+        <v>25677.864937999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.132740</v>
+        <v>7.1327400000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.930000</v>
+        <v>1445.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.156000</v>
+        <v>-364.15600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>25689.130570</v>
+        <v>25689.130570000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.135870</v>
+        <v>7.1358699999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.060000</v>
+        <v>1531.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.144000</v>
+        <v>-612.14400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>25699.867965</v>
+        <v>25699.867965000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>7.138852</v>
       </c>
       <c r="BK4" s="1">
-        <v>1685.260000</v>
+        <v>1685.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1056.850000</v>
+        <v>-1056.8499999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>25710.992477</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.141942</v>
+        <v>7.1419420000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.370000</v>
+        <v>1979.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1827.310000</v>
+        <v>-1827.31</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>25722.117007</v>
+        <v>25722.117007000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.145033</v>
+        <v>7.1450329999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2364.050000</v>
+        <v>2364.0500000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2715.900000</v>
+        <v>-2715.9</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>25733.122764</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.148090</v>
+        <v>7.1480899999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2849.170000</v>
+        <v>2849.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3687.780000</v>
+        <v>-3687.78</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>25744.591234</v>
@@ -1235,287 +1651,287 @@
         <v>7.151275</v>
       </c>
       <c r="CE4" s="1">
-        <v>4259.170000</v>
+        <v>4259.17</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6025.790000</v>
+        <v>-6025.79</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>25574.383106</v>
+        <v>25574.383106000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.103995</v>
+        <v>7.1039950000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.440000</v>
+        <v>1243.44</v>
       </c>
       <c r="D5" s="1">
-        <v>-311.756000</v>
+        <v>-311.75599999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>25584.754453</v>
+        <v>25584.754453000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.106876</v>
+        <v>7.1068759999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.160000</v>
+        <v>1270.1600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-268.793000</v>
+        <v>-268.79300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>25594.664519</v>
+        <v>25594.664519000002</v>
       </c>
       <c r="L5" s="1">
         <v>7.109629</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.764000</v>
+        <v>-204.76400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>25604.857306</v>
+        <v>25604.857306000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.112460</v>
+        <v>7.1124599999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.060000</v>
+        <v>1317.06</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.133000</v>
+        <v>-186.13300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>25614.997053</v>
+        <v>25614.997052999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.115277</v>
+        <v>7.1152769999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.220000</v>
+        <v>1330.22</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.009000</v>
+        <v>-172.00899999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>25625.147647</v>
+        <v>25625.147647000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.118097</v>
+        <v>7.1180969999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.390000</v>
+        <v>1347.39</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.202000</v>
+        <v>-169.202</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>25635.391026</v>
+        <v>25635.391026000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.120942</v>
+        <v>7.1209420000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.438000</v>
+        <v>-178.43799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>25645.546149</v>
+        <v>25645.546149000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.123763</v>
+        <v>7.1237630000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.600000</v>
+        <v>1380.6</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.473000</v>
+        <v>-208.47300000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>25656.156075</v>
+        <v>25656.156074999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.126710</v>
+        <v>7.1267100000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.157000</v>
+        <v>-252.15700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>25667.482184</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.129856</v>
+        <v>7.1298560000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.650000</v>
+        <v>1426.65</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.057000</v>
+        <v>-312.05700000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>25678.584137</v>
+        <v>25678.584137000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.132940</v>
+        <v>7.1329399999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.880000</v>
+        <v>1445.88</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.135000</v>
+        <v>-364.13499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>25689.517973</v>
+        <v>25689.517973000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.135977</v>
+        <v>7.1359769999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.990000</v>
+        <v>1530.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.158000</v>
+        <v>-612.15800000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>25700.222642</v>
+        <v>25700.222642000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.138951</v>
+        <v>7.1389509999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1685.180000</v>
+        <v>1685.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1056.810000</v>
+        <v>-1056.81</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>25711.392563</v>
+        <v>25711.392563000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.142053</v>
+        <v>7.1420529999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.110000</v>
+        <v>1979.11</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1827.320000</v>
+        <v>-1827.32</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>25722.827278</v>
+        <v>25722.827278000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.145230</v>
+        <v>7.1452299999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>2363.950000</v>
+        <v>2363.9499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2715.400000</v>
+        <v>-2715.4</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>25733.855824</v>
+        <v>25733.855823999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.148293</v>
+        <v>7.1482929999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2849.650000</v>
+        <v>2849.65</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3687.680000</v>
+        <v>-3687.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>25744.833314</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.151343</v>
+        <v>7.1513429999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>4269.820000</v>
+        <v>4269.82</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6036.050000</v>
+        <v>-6036.05</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>25574.805202</v>
       </c>
       <c r="B6" s="1">
-        <v>7.104113</v>
+        <v>7.1041129999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.110000</v>
+        <v>1244.1099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.266000</v>
+        <v>-311.26600000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>25585.172123</v>
@@ -1524,1116 +1940,1116 @@
         <v>7.106992</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.233000</v>
+        <v>-269.233</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>25594.944792</v>
+        <v>25594.944791999998</v>
       </c>
       <c r="L6" s="1">
-        <v>7.109707</v>
+        <v>7.1097070000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.756000</v>
+        <v>-204.756</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>25605.145977</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.112541</v>
+        <v>7.1125410000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.070000</v>
+        <v>1317.07</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.105000</v>
+        <v>-186.10499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>25615.340749</v>
+        <v>25615.340748999999</v>
       </c>
       <c r="V6" s="1">
-        <v>7.115372</v>
+        <v>7.1153719999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.100000</v>
+        <v>1330.1</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.954000</v>
+        <v>-171.95400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>25625.497360</v>
+        <v>25625.497360000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.118194</v>
+        <v>7.1181939999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.300000</v>
+        <v>-169.3</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>25635.736273</v>
+        <v>25635.736272999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.121038</v>
+        <v>7.1210380000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.453000</v>
+        <v>-178.453</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>25645.903245</v>
+        <v>25645.903245000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.123862</v>
+        <v>7.1238619999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.580000</v>
+        <v>1380.58</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.464000</v>
+        <v>-208.464</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>25656.873750</v>
+        <v>25656.873749999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.126909</v>
+        <v>7.1269090000000004</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.140000</v>
+        <v>1402.14</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.186000</v>
+        <v>-252.18600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>25667.866583</v>
+        <v>25667.866582999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.129963</v>
+        <v>7.1299630000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.037000</v>
+        <v>-312.03699999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>25678.942248</v>
+        <v>25678.942247999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.133040</v>
+        <v>7.1330400000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.910000</v>
+        <v>1445.91</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.085000</v>
+        <v>-364.08499999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>25689.879529</v>
+        <v>25689.879529000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.136078</v>
+        <v>7.1360780000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.000000</v>
+        <v>1531</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.133000</v>
+        <v>-612.13300000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>25700.601585</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.139056</v>
+        <v>7.1390560000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1685.140000</v>
+        <v>1685.14</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1056.870000</v>
+        <v>-1056.8699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>25712.118157</v>
+        <v>25712.118157000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.142255</v>
+        <v>7.1422549999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.110000</v>
+        <v>1979.11</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1827.210000</v>
+        <v>-1827.21</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>25722.946814</v>
+        <v>25722.946813999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.145263</v>
+        <v>7.1452629999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2364.150000</v>
+        <v>2364.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2714.990000</v>
+        <v>-2714.99</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>25733.971392</v>
+        <v>25733.971391999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.148325</v>
+        <v>7.1483249999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.660000</v>
+        <v>2848.66</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3687.420000</v>
+        <v>-3687.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>25745.366976</v>
+        <v>25745.366976000001</v>
       </c>
       <c r="CD6" s="1">
         <v>7.151491</v>
       </c>
       <c r="CE6" s="1">
-        <v>4277.350000</v>
+        <v>4277.3500000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6017.390000</v>
+        <v>-6017.39</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>25575.087928</v>
+        <v>25575.087928000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.104191</v>
+        <v>7.1041910000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.880000</v>
+        <v>1243.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.633000</v>
+        <v>-311.63299999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>25585.459795</v>
+        <v>25585.459794999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.107072</v>
+        <v>7.1070719999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.790000</v>
+        <v>1269.79</v>
       </c>
       <c r="I7" s="1">
-        <v>-268.310000</v>
+        <v>-268.31</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>25595.288983</v>
+        <v>25595.288982999999</v>
       </c>
       <c r="L7" s="1">
-        <v>7.109802</v>
+        <v>7.1098020000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N7" s="1">
-        <v>-205.004000</v>
+        <v>-205.00399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>25605.494171</v>
+        <v>25605.494170999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.112637</v>
+        <v>7.1126370000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.100000</v>
+        <v>1317.1</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.042000</v>
+        <v>-186.042</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>25615.684972</v>
+        <v>25615.684971999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.115468</v>
+        <v>7.1154679999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.995000</v>
+        <v>-171.995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>25625.847502</v>
+        <v>25625.847502000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.118291</v>
+        <v>7.1182910000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.935000</v>
+        <v>-168.935</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>25636.423200</v>
+        <v>25636.423200000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.121229</v>
+        <v>7.1212289999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.190000</v>
+        <v>1360.19</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.365000</v>
+        <v>-178.36500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>25646.595155</v>
+        <v>25646.595154999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.124054</v>
+        <v>7.1240540000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.465000</v>
+        <v>-208.465</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>25657.236325</v>
+        <v>25657.236325000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.127010</v>
+        <v>7.1270100000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.140000</v>
+        <v>1402.14</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.193000</v>
+        <v>-252.19300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>25668.233622</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.130065</v>
+        <v>7.1300650000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.650000</v>
+        <v>1426.65</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.061000</v>
+        <v>-312.06099999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>25679.300888</v>
+        <v>25679.300888000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.133139</v>
+        <v>7.1331389999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.910000</v>
+        <v>1445.91</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.115000</v>
+        <v>-364.11500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>25690.550652</v>
+        <v>25690.550652000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.136264</v>
+        <v>7.1362639999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.990000</v>
+        <v>1530.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.187000</v>
+        <v>-612.18700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>25701.335131</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.139260</v>
+        <v>7.1392600000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1685.140000</v>
+        <v>1685.14</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1056.790000</v>
+        <v>-1056.79</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>25712.235212</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.142288</v>
+        <v>7.1422879999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.140000</v>
+        <v>1979.14</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1827.350000</v>
+        <v>-1827.35</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>25723.382829</v>
+        <v>25723.382828999998</v>
       </c>
       <c r="BT7" s="1">
         <v>7.145384</v>
       </c>
       <c r="BU7" s="1">
-        <v>2364.750000</v>
+        <v>2364.75</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2714.660000</v>
+        <v>-2714.66</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>25734.419775</v>
+        <v>25734.419774999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.148450</v>
+        <v>7.1484500000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2849.350000</v>
+        <v>2849.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3687.770000</v>
+        <v>-3687.77</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>25745.907616</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.151641</v>
+        <v>7.1516409999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>4258.390000</v>
+        <v>4258.3900000000003</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6033.680000</v>
+        <v>-6033.68</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>25575.430198</v>
+        <v>25575.430197999998</v>
       </c>
       <c r="B8" s="1">
-        <v>7.104286</v>
+        <v>7.1042860000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.930000</v>
+        <v>1243.93</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.586000</v>
+        <v>-311.58600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>25585.803623</v>
       </c>
       <c r="G8" s="1">
-        <v>7.107168</v>
+        <v>7.1071679999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="I8" s="1">
-        <v>-269.003000</v>
+        <v>-269.00299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>25595.637671</v>
       </c>
       <c r="L8" s="1">
-        <v>7.109899</v>
+        <v>7.1098990000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.540000</v>
+        <v>1305.54</v>
       </c>
       <c r="N8" s="1">
-        <v>-204.522000</v>
+        <v>-204.52199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>25605.842398</v>
+        <v>25605.842398000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.112734</v>
+        <v>7.1127339999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.120000</v>
+        <v>1317.12</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.071000</v>
+        <v>-186.071</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>25616.368490</v>
+        <v>25616.368490000001</v>
       </c>
       <c r="V8" s="1">
-        <v>7.115658</v>
+        <v>7.1156579999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.069000</v>
+        <v>-172.06899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>25626.543885</v>
+        <v>25626.543884999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.118484</v>
+        <v>7.1184839999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.310000</v>
+        <v>1347.31</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.743000</v>
+        <v>-168.74299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>25636.766433</v>
+        <v>25636.766433000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.121324</v>
+        <v>7.1213240000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.408000</v>
+        <v>-178.40799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>25646.939876</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.124150</v>
+        <v>7.1241500000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.570000</v>
+        <v>1380.57</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.473000</v>
+        <v>-208.47300000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>25657.597150</v>
+        <v>25657.597150000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.127110</v>
+        <v>7.1271100000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.180000</v>
+        <v>1402.18</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.178000</v>
+        <v>-252.178</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>25668.912646</v>
+        <v>25668.912646000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.130254</v>
+        <v>7.1302539999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.600000</v>
+        <v>1426.6</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.068000</v>
+        <v>-312.06799999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>25679.966488</v>
+        <v>25679.966487999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>7.133324</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.077000</v>
+        <v>-364.077</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>25690.997016</v>
+        <v>25690.997016000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.136388</v>
+        <v>7.1363880000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.060000</v>
+        <v>1531.06</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.140000</v>
+        <v>-612.14</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>25701.756266</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.139377</v>
+        <v>7.1393769999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1685.140000</v>
+        <v>1685.14</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1056.860000</v>
+        <v>-1056.8599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>25712.633500</v>
+        <v>25712.6335</v>
       </c>
       <c r="BO8" s="1">
         <v>7.142398</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1827.370000</v>
+        <v>-1827.37</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>25723.812860</v>
+        <v>25723.812859999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.145504</v>
+        <v>7.1455039999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.220000</v>
+        <v>2365.2199999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2714.130000</v>
+        <v>-2714.13</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>25734.849844</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.148569</v>
+        <v>7.1485690000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2848.660000</v>
+        <v>2848.66</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3687.360000</v>
+        <v>-3687.36</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>25746.444784</v>
+        <v>25746.444783999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.151790</v>
+        <v>7.1517900000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4278.990000</v>
+        <v>4278.99</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6029.380000</v>
+        <v>-6029.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>25575.769920</v>
+        <v>25575.769919999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.104381</v>
+        <v>7.1043810000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="D9" s="1">
-        <v>-311.505000</v>
+        <v>-311.505</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>25586.149700</v>
+        <v>25586.149700000002</v>
       </c>
       <c r="G9" s="1">
-        <v>7.107264</v>
+        <v>7.1072639999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.960000</v>
+        <v>1269.96</v>
       </c>
       <c r="I9" s="1">
-        <v>-268.842000</v>
+        <v>-268.84199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>25596.326613</v>
+        <v>25596.326613000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.110091</v>
+        <v>7.1100909999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.310000</v>
+        <v>1305.31</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.744000</v>
+        <v>-204.744</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>25606.538280</v>
+        <v>25606.538280000001</v>
       </c>
       <c r="Q9" s="1">
         <v>7.112927</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.150000</v>
+        <v>1317.15</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.125000</v>
+        <v>-186.125</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>25616.712682</v>
+        <v>25616.712682000001</v>
       </c>
       <c r="V9" s="1">
-        <v>7.115754</v>
+        <v>7.1157539999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.066000</v>
+        <v>-172.066</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>25626.890093</v>
+        <v>25626.890093000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.118581</v>
+        <v>7.1185809999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.410000</v>
+        <v>1347.41</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.730000</v>
+        <v>-168.73</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>25637.109201</v>
+        <v>25637.109200999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.121419</v>
+        <v>7.1214190000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.140000</v>
+        <v>1360.14</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.437000</v>
+        <v>-178.43700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>25647.603025</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.124334</v>
+        <v>7.1243340000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.436000</v>
+        <v>-208.43600000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>25658.268995</v>
+        <v>25658.268994999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.127297</v>
+        <v>7.1272970000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.120000</v>
+        <v>1402.12</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.182000</v>
+        <v>-252.18199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>25669.360565</v>
+        <v>25669.360564999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.130378</v>
+        <v>7.1303780000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.620000</v>
+        <v>1426.62</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.066000</v>
+        <v>-312.06599999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>25680.408422</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.133447</v>
+        <v>7.1334470000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.890000</v>
+        <v>1445.89</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.094000</v>
+        <v>-364.09399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>25691.358631</v>
+        <v>25691.358630999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.136489</v>
+        <v>7.1364890000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.050000</v>
+        <v>1531.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.148000</v>
+        <v>-612.14800000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>25702.098971</v>
+        <v>25702.098970999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.139472</v>
+        <v>7.1394719999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1685.160000</v>
+        <v>1685.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1056.880000</v>
+        <v>-1056.8800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>25713.054107</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.142515</v>
+        <v>7.1425150000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.950000</v>
+        <v>1978.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1827.350000</v>
+        <v>-1827.35</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>25724.245854</v>
+        <v>25724.245854000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.145624</v>
+        <v>7.1456239999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2365.820000</v>
+        <v>2365.8200000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2714.210000</v>
+        <v>-2714.21</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>25735.283844</v>
+        <v>25735.283844000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.148690</v>
+        <v>7.1486900000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.190000</v>
+        <v>2849.19</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3687.830000</v>
+        <v>-3687.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>25746.988398</v>
+        <v>25746.988398000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.151941</v>
+        <v>7.1519409999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4263.840000</v>
+        <v>4263.84</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6018.040000</v>
+        <v>-6018.04</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>25576.454401</v>
+        <v>25576.454400999999</v>
       </c>
       <c r="B10" s="1">
         <v>7.104571</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.572000</v>
+        <v>-311.572</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>25586.839666</v>
       </c>
       <c r="G10" s="1">
-        <v>7.107455</v>
+        <v>7.1074549999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.960000</v>
+        <v>1269.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.953000</v>
+        <v>-268.95299999999997</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>25596.673846</v>
+        <v>25596.673846000002</v>
       </c>
       <c r="L10" s="1">
-        <v>7.110187</v>
+        <v>7.1101869999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.675000</v>
+        <v>-204.67500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>25606.891896</v>
+        <v>25606.891896000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.113026</v>
+        <v>7.1130259999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.181000</v>
+        <v>-186.18100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>25617.055418</v>
       </c>
       <c r="V10" s="1">
-        <v>7.115849</v>
+        <v>7.1158489999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.030000</v>
+        <v>-172.03</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>25627.240268</v>
+        <v>25627.240268000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.118678</v>
+        <v>7.1186780000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.761000</v>
+        <v>-168.761</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>25637.755950</v>
+        <v>25637.755949999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.121599</v>
+        <v>7.1215989999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.150000</v>
+        <v>1360.15</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.407000</v>
+        <v>-178.40700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>25647.987921</v>
@@ -2642,180 +3058,180 @@
         <v>7.124441</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.580000</v>
+        <v>1380.58</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.448000</v>
+        <v>-208.44800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>25658.705475</v>
+        <v>25658.705474999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.127418</v>
+        <v>7.1274179999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.190000</v>
+        <v>1402.19</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.172000</v>
+        <v>-252.172</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>25669.724100</v>
+        <v>25669.724099999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.130479</v>
+        <v>7.1304790000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.630000</v>
+        <v>1426.63</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.050000</v>
+        <v>-312.05</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>25680.768054</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.133547</v>
+        <v>7.1335470000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.930000</v>
+        <v>1445.93</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.093000</v>
+        <v>-364.09300000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>25691.718697</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.136589</v>
+        <v>7.1365889999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.990000</v>
+        <v>1530.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.108000</v>
+        <v>-612.10799999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>25702.528541</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.139591</v>
+        <v>7.1395910000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1685.170000</v>
+        <v>1685.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1056.780000</v>
+        <v>-1056.78</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>25713.476203</v>
+        <v>25713.476202999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.142632</v>
+        <v>7.1426319999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1827.150000</v>
+        <v>-1827.15</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>25724.658552</v>
+        <v>25724.658552000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.145738</v>
+        <v>7.1457379999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>2366.190000</v>
+        <v>2366.19</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2713.860000</v>
+        <v>-2713.86</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>25735.693006</v>
+        <v>25735.693006000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.148804</v>
+        <v>7.1488040000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2848.630000</v>
+        <v>2848.63</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3687.600000</v>
+        <v>-3687.6</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>25747.527582</v>
+        <v>25747.527581999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.152091</v>
+        <v>7.1520910000000004</v>
       </c>
       <c r="CE10" s="1">
-        <v>4266.320000</v>
+        <v>4266.32</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6036.100000</v>
+        <v>-6036.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>25576.794159</v>
+        <v>25576.794159000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.104665</v>
+        <v>7.1046649999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.476000</v>
+        <v>-311.476</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>25587.181388</v>
+        <v>25587.181388000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7.107550</v>
+        <v>7.1075499999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.573000</v>
+        <v>-268.57299999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>25597.023029</v>
@@ -2824,632 +3240,632 @@
         <v>7.110284</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.340000</v>
+        <v>1305.3399999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.709000</v>
+        <v>-204.709</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>25607.236616</v>
+        <v>25607.236615999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.113121</v>
+        <v>7.1131209999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.111000</v>
+        <v>-186.11099999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>25617.709146</v>
+        <v>25617.709146000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.116030</v>
+        <v>7.1160300000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.170000</v>
+        <v>1330.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.053000</v>
+        <v>-172.053</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>25627.899948</v>
+        <v>25627.899947999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.118861</v>
+        <v>7.1188609999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.310000</v>
+        <v>1347.31</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.810000</v>
+        <v>-168.81</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>25638.138862</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.121705</v>
+        <v>7.1217050000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.130000</v>
+        <v>1360.13</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.407000</v>
+        <v>-178.40700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>25648.336141</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.124538</v>
+        <v>7.1245380000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.479000</v>
+        <v>-208.47900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>25659.064579</v>
+        <v>25659.064579000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.127518</v>
+        <v>7.1275180000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.110000</v>
+        <v>1402.11</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.148000</v>
+        <v>-252.148</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>25670.086212</v>
+        <v>25670.086211999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.130580</v>
+        <v>7.1305800000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.620000</v>
+        <v>1426.62</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.037000</v>
+        <v>-312.03699999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>25681.126133</v>
+        <v>25681.126133000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.133646</v>
+        <v>7.1336459999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.089000</v>
+        <v>-364.089</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>25692.146278</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.136707</v>
+        <v>7.1367070000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.010000</v>
+        <v>1531.01</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.168000</v>
+        <v>-612.16800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>25702.859834</v>
+        <v>25702.859833999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.139683</v>
+        <v>7.1396829999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1685.130000</v>
+        <v>1685.13</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1056.820000</v>
+        <v>-1056.82</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>25713.876474</v>
+        <v>25713.876474000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.142743</v>
+        <v>7.1427430000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1979.110000</v>
+        <v>1979.11</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1827.170000</v>
+        <v>-1827.17</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>25725.085564</v>
+        <v>25725.085564000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.145857</v>
+        <v>7.1458570000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.750000</v>
+        <v>2366.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2714.150000</v>
+        <v>-2714.15</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>25736.149324</v>
+        <v>25736.149324000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.148930</v>
+        <v>7.14893</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.340000</v>
+        <v>2849.34</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3687.230000</v>
+        <v>-3687.23</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>25748.067230</v>
+        <v>25748.067230000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.152241</v>
+        <v>7.1522410000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4278.450000</v>
+        <v>4278.45</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6018.240000</v>
+        <v>-6018.24</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>25577.138880</v>
+        <v>25577.138879999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.104761</v>
+        <v>7.1047609999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.730000</v>
+        <v>1243.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-311.774000</v>
+        <v>-311.774</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>25587.524114</v>
       </c>
       <c r="G12" s="1">
-        <v>7.107646</v>
+        <v>7.1076459999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.630000</v>
+        <v>1269.6300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-269.594000</v>
+        <v>-269.59399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>25597.673749</v>
+        <v>25597.673749000001</v>
       </c>
       <c r="L12" s="1">
-        <v>7.110465</v>
+        <v>7.1104649999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.060000</v>
+        <v>1305.06</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.496000</v>
+        <v>-204.49600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>25607.910678</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.113309</v>
+        <v>7.1133090000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.090000</v>
+        <v>1317.09</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.039000</v>
+        <v>-186.03899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>25618.090072</v>
+        <v>25618.090071999999</v>
       </c>
       <c r="V12" s="1">
         <v>7.116136</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.030000</v>
+        <v>1330.03</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.105000</v>
+        <v>-172.10499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>25628.325050</v>
+        <v>25628.325049999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.118979</v>
+        <v>7.1189790000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.751000</v>
+        <v>-168.751</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>25638.482286</v>
+        <v>25638.482285999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.121801</v>
+        <v>7.1218009999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.140000</v>
+        <v>1360.14</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.397000</v>
+        <v>-178.39699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>25648.684305</v>
+        <v>25648.684304999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.124635</v>
+        <v>7.1246349999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.450000</v>
+        <v>-208.45</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>25659.427155</v>
+        <v>25659.427155000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.127619</v>
+        <v>7.1276190000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.191000</v>
+        <v>-252.191</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>25670.507779</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.130697</v>
+        <v>7.1306969999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.630000</v>
+        <v>1426.63</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.079000</v>
+        <v>-312.07900000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>25681.554677</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.133765</v>
+        <v>7.1337650000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.056000</v>
+        <v>-364.05599999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>25692.442854</v>
+        <v>25692.442854000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.136790</v>
+        <v>7.1367900000000004</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.040000</v>
+        <v>1531.04</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.146000</v>
+        <v>-612.14599999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>25703.250184</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.139792</v>
+        <v>7.1397919999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1685.170000</v>
+        <v>1685.17</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1056.770000</v>
+        <v>-1056.77</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>25714.272283</v>
+        <v>25714.272282999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.142853</v>
+        <v>7.1428529999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.040000</v>
+        <v>1979.04</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1827.160000</v>
+        <v>-1827.16</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>25725.496282</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.145971</v>
+        <v>7.1459710000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.090000</v>
+        <v>2367.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2714.440000</v>
+        <v>-2714.44</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>25736.565003</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.149046</v>
+        <v>7.1490460000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.020000</v>
+        <v>2849.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3687.240000</v>
+        <v>-3687.24</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>25748.608364</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.152391</v>
+        <v>7.1523909999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>4256.450000</v>
+        <v>4256.45</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6029.170000</v>
+        <v>-6029.17</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>25577.789630</v>
+        <v>25577.789629999999</v>
       </c>
       <c r="B13" s="1">
-        <v>7.104942</v>
+        <v>7.1049420000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="D13" s="1">
-        <v>-311.499000</v>
+        <v>-311.49900000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>25588.176848</v>
+        <v>25588.176847999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.107827</v>
+        <v>7.1078270000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-267.882000</v>
+        <v>-267.88200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>25598.055667</v>
+        <v>25598.055667000001</v>
       </c>
       <c r="L13" s="1">
-        <v>7.110571</v>
+        <v>7.1105710000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.520000</v>
+        <v>1305.52</v>
       </c>
       <c r="N13" s="1">
-        <v>-204.608000</v>
+        <v>-204.608</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>25608.284961</v>
+        <v>25608.284961000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.113412</v>
+        <v>7.1134120000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.130000</v>
+        <v>1317.13</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.041000</v>
+        <v>-186.041</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>25618.434060</v>
+        <v>25618.43406</v>
       </c>
       <c r="V13" s="1">
-        <v>7.116232</v>
+        <v>7.1162320000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.050000</v>
+        <v>1330.05</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.100000</v>
+        <v>-172.1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>25628.632042</v>
+        <v>25628.632042000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.119064</v>
+        <v>7.1190639999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.030000</v>
+        <v>1347.03</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.059000</v>
+        <v>-169.059</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>25638.828301</v>
+        <v>25638.828301000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.121897</v>
+        <v>7.1218969999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.683000</v>
+        <v>-178.68299999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>25649.101937</v>
+        <v>25649.101936999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.124751</v>
+        <v>7.1247509999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.570000</v>
+        <v>1380.57</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.426000</v>
+        <v>-208.42599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>25659.835394</v>
+        <v>25659.835394000002</v>
       </c>
       <c r="AP13" s="1">
         <v>7.127732</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.140000</v>
+        <v>1402.14</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.181000</v>
+        <v>-252.18100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>25670.818275</v>
+        <v>25670.818275000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.130783</v>
+        <v>7.1307830000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.019000</v>
+        <v>-312.01900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>25681.843385</v>
@@ -3458,13 +3874,13 @@
         <v>7.133845</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.910000</v>
+        <v>1445.91</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.091000</v>
+        <v>-364.09100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>25692.801958</v>
@@ -3473,225 +3889,225 @@
         <v>7.136889</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.080000</v>
+        <v>1531.08</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.112000</v>
+        <v>-612.11199999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>25703.624663</v>
+        <v>25703.624662999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.139896</v>
+        <v>7.1398960000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1685.130000</v>
+        <v>1685.13</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1056.820000</v>
+        <v>-1056.82</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>25714.694873</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.142971</v>
+        <v>7.1429710000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1827.050000</v>
+        <v>-1827.05</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>25725.928267</v>
+        <v>25725.928266999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.146091</v>
+        <v>7.1460910000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.590000</v>
+        <v>2367.59</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2714.690000</v>
+        <v>-2714.69</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>25737.046587</v>
+        <v>25737.046587000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.149180</v>
+        <v>7.1491800000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2848.520000</v>
+        <v>2848.52</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3687.140000</v>
+        <v>-3687.14</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>25749.147515</v>
+        <v>25749.147515000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.152541</v>
+        <v>7.1525410000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.280000</v>
+        <v>4276.28</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6031.530000</v>
+        <v>-6031.53</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>25578.163117</v>
       </c>
       <c r="B14" s="1">
-        <v>7.105045</v>
+        <v>7.1050449999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.450000</v>
+        <v>1243.45</v>
       </c>
       <c r="D14" s="1">
-        <v>-311.466000</v>
+        <v>-311.46600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>25588.561776</v>
+        <v>25588.561775999999</v>
       </c>
       <c r="G14" s="1">
-        <v>7.107934</v>
+        <v>7.1079340000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.020000</v>
+        <v>1270.02</v>
       </c>
       <c r="I14" s="1">
-        <v>-267.905000</v>
+        <v>-267.90499999999997</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>25598.402381</v>
       </c>
       <c r="L14" s="1">
-        <v>7.110667</v>
+        <v>7.1106670000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.360000</v>
+        <v>1305.3599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-204.600000</v>
+        <v>-204.6</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>25608.631861</v>
+        <v>25608.631861000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.113509</v>
+        <v>7.1135089999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.130000</v>
+        <v>1317.13</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.084000</v>
+        <v>-186.084</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>25618.781000</v>
+        <v>25618.780999999999</v>
       </c>
       <c r="V14" s="1">
-        <v>7.116328</v>
+        <v>7.1163280000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.160000</v>
+        <v>1330.16</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.028000</v>
+        <v>-172.02799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>25629.045210</v>
+        <v>25629.04521</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.119179</v>
+        <v>7.1191789999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.300000</v>
+        <v>1347.3</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.114000</v>
+        <v>-169.114</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>25639.244478</v>
+        <v>25639.244478000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.122012</v>
+        <v>7.1220119999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.721000</v>
+        <v>-178.721</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>25649.382203</v>
+        <v>25649.382203000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.124828</v>
+        <v>7.1248279999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.560000</v>
+        <v>1380.56</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.459000</v>
+        <v>-208.459</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>25660.146362</v>
+        <v>25660.146361999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.127818</v>
+        <v>7.1278180000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.177000</v>
+        <v>-252.17699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>25671.183363</v>
@@ -3700,799 +4116,799 @@
         <v>7.130884</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.038000</v>
+        <v>-312.03800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>25682.202452</v>
+        <v>25682.202452000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.133945</v>
+        <v>7.1339449999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.890000</v>
+        <v>1445.89</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.065000</v>
+        <v>-364.065</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>25693.164534</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.136990</v>
+        <v>7.1369899999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.990000</v>
+        <v>1530.99</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.094000</v>
+        <v>-612.09400000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>25704.375143</v>
+        <v>25704.375143000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>7.140104</v>
       </c>
       <c r="BK14" s="1">
-        <v>1685.140000</v>
+        <v>1685.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1056.780000</v>
+        <v>-1056.78</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>25715.109561</v>
+        <v>25715.109561000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.143086</v>
+        <v>7.1430860000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.980000</v>
+        <v>1978.98</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1827.210000</v>
+        <v>-1827.21</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>25726.356818</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.146210</v>
+        <v>7.14621</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.200000</v>
+        <v>2368.1999999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2714.680000</v>
+        <v>-2714.68</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>25737.467690</v>
+        <v>25737.467690000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.149297</v>
+        <v>7.1492969999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.350000</v>
+        <v>2849.35</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3687.070000</v>
+        <v>-3687.07</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>25749.687162</v>
+        <v>25749.687161999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.152691</v>
+        <v>7.1526909999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4267.440000</v>
+        <v>4267.4399999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6015.510000</v>
+        <v>-6015.51</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>25578.504402</v>
+        <v>25578.504401999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.105140</v>
+        <v>7.1051399999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.670000</v>
+        <v>1243.67</v>
       </c>
       <c r="D15" s="1">
-        <v>-311.386000</v>
+        <v>-311.38600000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>25588.907487</v>
       </c>
       <c r="G15" s="1">
-        <v>7.108030</v>
+        <v>7.1080300000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.790000</v>
+        <v>1269.79</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.041000</v>
+        <v>-269.041</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>25598.749570</v>
+        <v>25598.74957</v>
       </c>
       <c r="L15" s="1">
-        <v>7.110764</v>
+        <v>7.1107639999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.330000</v>
+        <v>1305.33</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.454000</v>
+        <v>-204.45400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>25608.978068</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.113605</v>
+        <v>7.1136049999999997</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.100000</v>
+        <v>1317.1</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.120000</v>
+        <v>-186.12</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>25619.191224</v>
+        <v>25619.191223999998</v>
       </c>
       <c r="V15" s="1">
-        <v>7.116442</v>
+        <v>7.1164420000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.105000</v>
+        <v>-172.10499999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>25629.331434</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.119259</v>
+        <v>7.1192589999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>25639.536124</v>
+        <v>25639.536123999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.122093</v>
+        <v>7.1220929999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.050000</v>
+        <v>1360.05</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25649.731360</v>
+        <v>25649.731360000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.124925</v>
+        <v>7.1249250000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.580000</v>
+        <v>1380.58</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.448000</v>
+        <v>-208.44800000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>25660.506483</v>
+        <v>25660.506483000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.127918</v>
+        <v>7.1279180000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.153000</v>
+        <v>-252.15299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>25671.548882</v>
+        <v>25671.548881999999</v>
       </c>
       <c r="AU15" s="1">
         <v>7.130986</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.620000</v>
+        <v>1426.62</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.012000</v>
+        <v>-312.012</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>25682.562051</v>
+        <v>25682.562051000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.134045</v>
+        <v>7.1340450000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.910000</v>
+        <v>1445.91</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.048000</v>
+        <v>-364.048</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>25693.887236</v>
+        <v>25693.887235999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.137191</v>
+        <v>7.1371909999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.980000</v>
+        <v>1530.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.125000</v>
+        <v>-612.125</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>25704.750582</v>
+        <v>25704.750582000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.140208</v>
+        <v>7.1402080000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1685.120000</v>
+        <v>1685.12</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1056.770000</v>
+        <v>-1056.77</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>25715.512776</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.143198</v>
+        <v>7.1431979999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1827.230000</v>
+        <v>-1827.23</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>25726.768490</v>
+        <v>25726.768489999999</v>
       </c>
       <c r="BT15" s="1">
         <v>7.146325</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.340000</v>
+        <v>2368.34</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2715.200000</v>
+        <v>-2715.2</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>25738.195819</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.149499</v>
+        <v>7.1494989999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2848.670000</v>
+        <v>2848.67</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3686.510000</v>
+        <v>-3686.51</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>25750.537275</v>
+        <v>25750.537274999999</v>
       </c>
       <c r="CD15" s="1">
         <v>7.152927</v>
       </c>
       <c r="CE15" s="1">
-        <v>4278.610000</v>
+        <v>4278.6099999999997</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6030.460000</v>
+        <v>-6030.46</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>25578.846604</v>
+        <v>25578.846603999998</v>
       </c>
       <c r="B16" s="1">
-        <v>7.105235</v>
+        <v>7.1052350000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.660000</v>
+        <v>1243.6600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-311.512000</v>
+        <v>-311.512</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>25589.253663</v>
       </c>
       <c r="G16" s="1">
-        <v>7.108126</v>
+        <v>7.1081260000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.860000</v>
+        <v>1268.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.019000</v>
+        <v>-269.01900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>25599.164258</v>
+        <v>25599.164258000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.110879</v>
+        <v>7.1108789999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.071000</v>
+        <v>-205.071</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>25609.390741</v>
+        <v>25609.390740999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.113720</v>
+        <v>7.1137199999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.070000</v>
+        <v>1317.07</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.148000</v>
+        <v>-186.148</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>25619.485853</v>
+        <v>25619.485852999998</v>
       </c>
       <c r="V16" s="1">
-        <v>7.116524</v>
+        <v>7.1165240000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.832000</v>
+        <v>-171.83199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>25629.679129</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.119355</v>
+        <v>7.1193549999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.490000</v>
+        <v>1347.49</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.728000</v>
+        <v>-168.72800000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>25639.878332</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.122188</v>
+        <v>7.1221880000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.699000</v>
+        <v>-178.69900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>25650.081038</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.125023</v>
+        <v>7.1250229999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.550000</v>
+        <v>1380.55</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.453000</v>
+        <v>-208.453</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>25660.868528</v>
+        <v>25660.868527999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.128019</v>
+        <v>7.1280190000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.170000</v>
+        <v>1402.17</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.164000</v>
+        <v>-252.16399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>25672.279184</v>
+        <v>25672.279183999999</v>
       </c>
       <c r="AU16" s="1">
         <v>7.131189</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.640000</v>
+        <v>1426.64</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.074000</v>
+        <v>-312.07400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>25683.379954</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.134272</v>
+        <v>7.1342720000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.880000</v>
+        <v>1445.88</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.056000</v>
+        <v>-364.05599999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>25694.246804</v>
+        <v>25694.246803999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.137291</v>
+        <v>7.1372910000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.010000</v>
+        <v>1531.01</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.128000</v>
+        <v>-612.12800000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>25705.115639</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.140310</v>
+        <v>7.1403100000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1685.120000</v>
+        <v>1685.12</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1056.710000</v>
+        <v>-1056.71</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>25715.909580</v>
+        <v>25715.90958</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.143308</v>
+        <v>7.1433080000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1979.030000</v>
+        <v>1979.03</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1827.180000</v>
+        <v>-1827.18</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>25727.516456</v>
+        <v>25727.516456000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.146532</v>
+        <v>7.1465319999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.270000</v>
+        <v>2368.27</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2715.750000</v>
+        <v>-2715.75</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>25738.340682</v>
+        <v>25738.340681999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.149539</v>
+        <v>7.1495389999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.300000</v>
+        <v>2849.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3686.590000</v>
+        <v>-3686.59</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>25750.767450</v>
+        <v>25750.767449999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.152991</v>
+        <v>7.1529910000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4275.880000</v>
+        <v>4275.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6030.460000</v>
+        <v>-6030.46</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>25579.257788</v>
+        <v>25579.257787999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.105349</v>
+        <v>7.1053490000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.860000</v>
+        <v>1243.8599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.681000</v>
+        <v>-311.68099999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>25589.671792</v>
+        <v>25589.671792000001</v>
       </c>
       <c r="G17" s="1">
-        <v>7.108242</v>
+        <v>7.1082419999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.420000</v>
+        <v>1269.42</v>
       </c>
       <c r="I17" s="1">
-        <v>-267.785000</v>
+        <v>-267.78500000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>25599.460337</v>
       </c>
       <c r="L17" s="1">
-        <v>7.110961</v>
+        <v>7.1109609999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.979000</v>
+        <v>-204.97900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>25609.690820</v>
+        <v>25609.69082</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.113803</v>
+        <v>7.1138029999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.118000</v>
+        <v>-186.11799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>25619.827591</v>
+        <v>25619.827591000001</v>
       </c>
       <c r="V17" s="1">
         <v>7.116619</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.183000</v>
+        <v>-172.18299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>25630.030792</v>
+        <v>25630.030792000001</v>
       </c>
       <c r="AA17" s="1">
         <v>7.119453</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.700000</v>
+        <v>-168.7</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>25640.223083</v>
+        <v>25640.223083000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.122284</v>
+        <v>7.1222839999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.759000</v>
+        <v>-178.75899999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>25650.774477</v>
+        <v>25650.774476999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.125215</v>
+        <v>7.1252149999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.560000</v>
+        <v>1380.56</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.428000</v>
+        <v>-208.428</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>25661.593679</v>
+        <v>25661.593679000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.128220</v>
+        <v>7.1282199999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.136000</v>
+        <v>-252.136</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>25672.668848</v>
+        <v>25672.668848000001</v>
       </c>
       <c r="AU17" s="1">
         <v>7.131297</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.580000</v>
+        <v>1426.58</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.021000</v>
+        <v>-312.02100000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>25683.638381</v>
+        <v>25683.638381000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.134344</v>
+        <v>7.1343439999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.930000</v>
+        <v>1445.93</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.072000</v>
+        <v>-364.072</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>25694.608387</v>
@@ -4501,467 +4917,467 @@
         <v>7.137391</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.010000</v>
+        <v>1531.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.076000</v>
+        <v>-612.07600000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>25705.820949</v>
+        <v>25705.820949000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.140506</v>
+        <v>7.1405060000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1685.120000</v>
+        <v>1685.12</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1056.660000</v>
+        <v>-1056.6600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>25716.631254</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.143509</v>
+        <v>7.1435089999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.870000</v>
+        <v>1978.87</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1827.080000</v>
+        <v>-1827.08</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>25727.627064</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.146563</v>
+        <v>7.1465630000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.490000</v>
+        <v>2368.4899999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2716.250000</v>
+        <v>-2716.25</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>25738.767209</v>
+        <v>25738.767209000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.149658</v>
+        <v>7.1496579999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.710000</v>
+        <v>2848.71</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3687.200000</v>
+        <v>-3687.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>25751.286730</v>
+        <v>25751.28673</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.153135</v>
+        <v>7.1531349999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4271.090000</v>
+        <v>4271.09</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6017.670000</v>
+        <v>-6017.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>25579.545964</v>
+        <v>25579.545964000001</v>
       </c>
       <c r="B18" s="1">
         <v>7.105429</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-311.299000</v>
+        <v>-311.29899999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>25589.947070</v>
+        <v>25589.947069999998</v>
       </c>
       <c r="G18" s="1">
-        <v>7.108319</v>
+        <v>7.1083189999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.462000</v>
+        <v>-268.46199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>25599.806049</v>
+        <v>25599.806048999999</v>
       </c>
       <c r="L18" s="1">
-        <v>7.111057</v>
+        <v>7.1110569999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.300000</v>
+        <v>-204.3</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>25610.060872</v>
+        <v>25610.060871999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.113906</v>
+        <v>7.1139060000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.080000</v>
+        <v>1317.08</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.065000</v>
+        <v>-186.065</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>25620.172774</v>
+        <v>25620.172773999999</v>
       </c>
       <c r="V18" s="1">
-        <v>7.116715</v>
+        <v>7.1167150000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.220000</v>
+        <v>1330.22</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.052000</v>
+        <v>-172.05199999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>25630.726152</v>
+        <v>25630.726151999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.119646</v>
+        <v>7.1196460000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.500000</v>
+        <v>1347.5</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.874000</v>
+        <v>-168.874</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>25640.910010</v>
+        <v>25640.91001</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.122475</v>
+        <v>7.1224749999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.030000</v>
+        <v>1360.03</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.869000</v>
+        <v>-178.869</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>25651.122670</v>
+        <v>25651.122670000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.125312</v>
+        <v>7.1253120000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.469000</v>
+        <v>-208.46899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>25661.971135</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.128325</v>
+        <v>7.1283250000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.186000</v>
+        <v>-252.18600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>25673.034897</v>
+        <v>25673.034897000001</v>
       </c>
       <c r="AU18" s="1">
         <v>7.131399</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.012000</v>
+        <v>-312.012</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>25684.303009</v>
+        <v>25684.303008999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.134529</v>
+        <v>7.1345289999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.910000</v>
+        <v>1445.91</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.094000</v>
+        <v>-364.09399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>25695.270083</v>
+        <v>25695.270082999999</v>
       </c>
       <c r="BE18" s="1">
         <v>7.137575</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.020000</v>
+        <v>1531.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.088000</v>
+        <v>-612.08799999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>25706.277764</v>
+        <v>25706.277763999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.140633</v>
+        <v>7.1406330000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1685.170000</v>
+        <v>1685.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1056.660000</v>
+        <v>-1056.6600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>25716.758726</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.143544</v>
+        <v>7.1435440000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1827.020000</v>
+        <v>-1827.02</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>25728.066023</v>
+        <v>25728.066022999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.146685</v>
+        <v>7.1466849999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.310000</v>
+        <v>2368.31</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2716.690000</v>
+        <v>-2716.69</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>25739.184345</v>
+        <v>25739.184345000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.149773</v>
+        <v>7.1497729999999997</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2848.130000</v>
+        <v>2848.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3686.550000</v>
+        <v>-3686.55</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>25751.803593</v>
+        <v>25751.803593000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.153279</v>
+        <v>7.1532790000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>4258.470000</v>
+        <v>4258.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6023.850000</v>
+        <v>-6023.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>25579.888236</v>
+        <v>25579.888235999999</v>
       </c>
       <c r="B19" s="1">
-        <v>7.105525</v>
+        <v>7.1055250000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.640000</v>
+        <v>1243.6400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-311.593000</v>
+        <v>-311.59300000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>25590.295261</v>
+        <v>25590.295260999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.108415</v>
+        <v>7.1084149999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.520000</v>
+        <v>1269.52</v>
       </c>
       <c r="I19" s="1">
-        <v>-269.266000</v>
+        <v>-269.26600000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>25600.152324</v>
+        <v>25600.152323999999</v>
       </c>
       <c r="L19" s="1">
-        <v>7.111153</v>
+        <v>7.1111529999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.630000</v>
+        <v>1305.6300000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.369000</v>
+        <v>-204.369</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>25610.722535</v>
+        <v>25610.722535000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.114090</v>
+        <v>7.11409</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.130000</v>
+        <v>1317.13</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.044000</v>
+        <v>-186.04400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>25620.857776</v>
+        <v>25620.857776000001</v>
       </c>
       <c r="V19" s="1">
         <v>7.116905</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.126000</v>
+        <v>-172.126</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>25631.073849</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.119743</v>
+        <v>7.1197429999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.380000</v>
+        <v>1347.38</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.828000</v>
+        <v>-168.828</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>25641.252779</v>
+        <v>25641.252778999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.122570</v>
+        <v>7.1225699999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.030000</v>
+        <v>1360.03</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.860000</v>
+        <v>-178.86</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>25651.471852</v>
+        <v>25651.471851999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.125409</v>
+        <v>7.1254090000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.560000</v>
+        <v>1380.56</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.472000</v>
+        <v>-208.47200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>25662.331726</v>
@@ -4970,1164 +5386,1164 @@
         <v>7.128425</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.171000</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>25673.704495</v>
+        <v>25673.704495000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.131585</v>
+        <v>7.1315850000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.600000</v>
+        <v>1426.6</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.081000</v>
+        <v>-312.08100000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>25684.741505</v>
+        <v>25684.741505000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.134650</v>
+        <v>7.1346499999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.880000</v>
+        <v>1445.88</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.093000</v>
+        <v>-364.09300000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>25695.726866</v>
+        <v>25695.726866000001</v>
       </c>
       <c r="BE19" s="1">
         <v>7.137702</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.040000</v>
+        <v>1531.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.064000</v>
+        <v>-612.06399999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>25706.681012</v>
+        <v>25706.681012000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.140745</v>
+        <v>7.1407449999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1685.090000</v>
+        <v>1685.09</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1056.710000</v>
+        <v>-1056.71</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>25717.152054</v>
+        <v>25717.152053999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.143653</v>
+        <v>7.1436529999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.880000</v>
+        <v>1978.88</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1826.930000</v>
+        <v>-1826.93</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>25728.477702</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.146799</v>
+        <v>7.1467989999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.070000</v>
+        <v>2368.0700000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2717.280000</v>
+        <v>-2717.28</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>25739.631240</v>
+        <v>25739.631239999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.149898</v>
+        <v>7.1498980000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2848.500000</v>
+        <v>2848.5</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3687.130000</v>
+        <v>-3687.13</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>25752.320887</v>
+        <v>25752.320887000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.153422</v>
+        <v>7.1534219999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.510000</v>
+        <v>4265.51</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6036.940000</v>
+        <v>-6036.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>25580.230970</v>
+        <v>25580.230970000001</v>
       </c>
       <c r="B20" s="1">
-        <v>7.105620</v>
+        <v>7.10562</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.920000</v>
+        <v>1243.92</v>
       </c>
       <c r="D20" s="1">
-        <v>-311.119000</v>
+        <v>-311.11900000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>25590.637006</v>
+        <v>25590.637006000001</v>
       </c>
       <c r="G20" s="1">
-        <v>7.108510</v>
+        <v>7.1085099999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.119000</v>
+        <v>-269.11900000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>25600.844671</v>
+        <v>25600.844670999999</v>
       </c>
       <c r="L20" s="1">
-        <v>7.111346</v>
+        <v>7.1113460000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.310000</v>
+        <v>1305.31</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.824000</v>
+        <v>-204.82400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>25611.091064</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.114192</v>
+        <v>7.1141920000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.170000</v>
+        <v>1317.17</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.092000</v>
+        <v>-186.09200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>25621.202469</v>
       </c>
       <c r="V20" s="1">
-        <v>7.117001</v>
+        <v>7.1170010000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.149000</v>
+        <v>-172.149</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>25631.423067</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.119840</v>
+        <v>7.1198399999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.794000</v>
+        <v>-168.79400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>25641.597961</v>
+        <v>25641.597960999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.122666</v>
+        <v>7.1226659999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>25652.124588</v>
+        <v>25652.124587999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.125590</v>
+        <v>7.1255899999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.570000</v>
+        <v>1380.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.443000</v>
+        <v>-208.44300000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>25663.006782</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.128613</v>
+        <v>7.1286129999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.190000</v>
+        <v>1402.19</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.128000</v>
+        <v>-252.12799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>25674.159328</v>
+        <v>25674.159328000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.131711</v>
+        <v>7.1317110000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.620000</v>
+        <v>1426.62</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.044000</v>
+        <v>-312.04399999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>25685.099584</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.134750</v>
+        <v>7.1347500000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.870000</v>
+        <v>1445.87</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.044000</v>
+        <v>-364.04399999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>25696.085010</v>
+        <v>25696.085009999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.137801</v>
+        <v>7.1378009999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.960000</v>
+        <v>1530.96</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.082000</v>
+        <v>-612.08199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>25707.053538</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.140848</v>
+        <v>7.1408480000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1685.150000</v>
+        <v>1685.15</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1056.680000</v>
+        <v>-1056.68</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>25717.575652</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.143771</v>
+        <v>7.1437710000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1827.120000</v>
+        <v>-1827.12</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>25728.909222</v>
+        <v>25728.909221999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.146919</v>
+        <v>7.1469189999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.750000</v>
+        <v>2367.75</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2717.550000</v>
+        <v>-2717.55</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>25740.054823</v>
+        <v>25740.054822999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.150015</v>
+        <v>7.1500149999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.460000</v>
+        <v>2849.46</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3686.500000</v>
+        <v>-3686.5</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>25752.840199</v>
+        <v>25752.840198999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.153567</v>
+        <v>7.1535669999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4257.830000</v>
+        <v>4257.83</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6033.470000</v>
+        <v>-6033.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>25580.912939</v>
+        <v>25580.912939000002</v>
       </c>
       <c r="B21" s="1">
-        <v>7.105809</v>
+        <v>7.1058089999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-311.295000</v>
+        <v>-311.29500000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>25591.350779</v>
       </c>
       <c r="G21" s="1">
-        <v>7.108709</v>
+        <v>7.1087090000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.420000</v>
+        <v>1270.42</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.918000</v>
+        <v>-268.91800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>25601.191375</v>
+        <v>25601.191374999999</v>
       </c>
       <c r="L21" s="1">
-        <v>7.111442</v>
+        <v>7.1114420000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.200000</v>
+        <v>1305.2</v>
       </c>
       <c r="N21" s="1">
-        <v>-204.504000</v>
+        <v>-204.50399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>25611.439218</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.114289</v>
+        <v>7.1142890000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.080000</v>
+        <v>1317.08</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.122000</v>
+        <v>-186.12200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>25621.545204</v>
+        <v>25621.545203999998</v>
       </c>
       <c r="V21" s="1">
-        <v>7.117096</v>
+        <v>7.1170960000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.057000</v>
+        <v>-172.05699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>25632.076759</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.120021</v>
+        <v>7.1200210000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.310000</v>
+        <v>1347.31</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.823000</v>
+        <v>-168.82300000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>25642.241800</v>
+        <v>25642.2418</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.122845</v>
+        <v>7.1228449999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.883000</v>
+        <v>-178.88300000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>25652.516891</v>
+        <v>25652.516890999999</v>
       </c>
       <c r="AK21" s="1">
         <v>7.125699</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.600000</v>
+        <v>1380.6</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.452000</v>
+        <v>-208.452</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>25663.411517</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.128725</v>
+        <v>7.1287250000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.138000</v>
+        <v>-252.13800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>25674.525374</v>
+        <v>25674.525374000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.131813</v>
+        <v>7.1318130000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.590000</v>
+        <v>1426.59</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.012000</v>
+        <v>-312.012</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>25685.458687</v>
+        <v>25685.458686999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.134850</v>
+        <v>7.1348500000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.070000</v>
+        <v>-364.07</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>25696.451522</v>
+        <v>25696.451521999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.137903</v>
+        <v>7.1379029999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.000000</v>
+        <v>1531</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.081000</v>
+        <v>-612.08100000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>25707.485058</v>
+        <v>25707.485057999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>7.140968</v>
       </c>
       <c r="BK21" s="1">
-        <v>1685.120000</v>
+        <v>1685.12</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1056.650000</v>
+        <v>-1056.6500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>25717.991285</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.143886</v>
+        <v>7.1438860000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1827.000000</v>
+        <v>-1827</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>25729.336775</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.147038</v>
+        <v>7.1470380000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.770000</v>
+        <v>2367.77</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2717.940000</v>
+        <v>-2717.94</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>25740.476919</v>
+        <v>25740.476919000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.150132</v>
+        <v>7.1501320000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.610000</v>
+        <v>2849.61</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3687.230000</v>
+        <v>-3687.23</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>25753.393270</v>
+        <v>25753.39327</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.153720</v>
+        <v>7.1537199999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4259.060000</v>
+        <v>4259.0600000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6021.520000</v>
+        <v>-6021.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>25581.256665</v>
+        <v>25581.256665000001</v>
       </c>
       <c r="B22" s="1">
-        <v>7.105905</v>
+        <v>7.1059049999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.840000</v>
+        <v>1243.8399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-311.632000</v>
+        <v>-311.63200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>25591.812027</v>
       </c>
       <c r="G22" s="1">
-        <v>7.108837</v>
+        <v>7.1088370000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.780000</v>
+        <v>1269.78</v>
       </c>
       <c r="I22" s="1">
-        <v>-267.971000</v>
+        <v>-267.971</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>25601.535407</v>
+        <v>25601.535406999999</v>
       </c>
       <c r="L22" s="1">
-        <v>7.111538</v>
+        <v>7.1115380000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.370000</v>
+        <v>1305.3699999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.524000</v>
+        <v>-204.524</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>25612.097408</v>
+        <v>25612.097408000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.114472</v>
+        <v>7.1144720000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.090000</v>
+        <v>1317.09</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.081000</v>
+        <v>-186.08099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>25622.191027</v>
+        <v>25622.191027000001</v>
       </c>
       <c r="V22" s="1">
-        <v>7.117275</v>
+        <v>7.1172750000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.280000</v>
+        <v>1330.28</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.055000</v>
+        <v>-172.05500000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>25632.469093</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.120130</v>
+        <v>7.1201299999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.380000</v>
+        <v>1347.38</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.741000</v>
+        <v>-168.74100000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>25642.627161</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.122952</v>
+        <v>7.1229519999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.901000</v>
+        <v>-178.90100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>25652.867068</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.125796</v>
+        <v>7.1257960000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.436000</v>
+        <v>-208.43600000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>25663.794924</v>
+        <v>25663.794924000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.128832</v>
+        <v>7.1288320000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.150000</v>
+        <v>1402.15</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.141000</v>
+        <v>-252.14099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>25674.892445</v>
+        <v>25674.892445000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.131915</v>
+        <v>7.1319150000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.590000</v>
+        <v>1426.59</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.014000</v>
+        <v>-312.01400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>25685.876817</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.134966</v>
+        <v>7.1349660000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.920000</v>
+        <v>1445.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.140000</v>
+        <v>-364.14</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>25696.862208</v>
+        <v>25696.862207999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.138017</v>
+        <v>7.1380169999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.030000</v>
+        <v>1531.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.080000</v>
+        <v>-612.08000000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>25707.832226</v>
+        <v>25707.832225999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.141065</v>
+        <v>7.1410650000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1685.110000</v>
+        <v>1685.11</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1056.600000</v>
+        <v>-1056.5999999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>25718.394533</v>
+        <v>25718.394532999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.143998</v>
+        <v>7.1439979999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.010000</v>
+        <v>1979.01</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1827.030000</v>
+        <v>-1827.03</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>25729.749941</v>
+        <v>25729.749940999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.147153</v>
+        <v>7.1471530000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.280000</v>
+        <v>2367.2800000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2718.030000</v>
+        <v>-2718.03</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>25740.925798</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.150257</v>
+        <v>7.1502569999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2848.150000</v>
+        <v>2848.15</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3686.920000</v>
+        <v>-3686.92</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>25753.923462</v>
+        <v>25753.923461999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.153868</v>
+        <v>7.1538680000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4263.310000</v>
+        <v>4263.3100000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6035.680000</v>
+        <v>-6035.68</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>25581.596920</v>
+        <v>25581.59692</v>
       </c>
       <c r="B23" s="1">
-        <v>7.105999</v>
+        <v>7.1059989999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="D23" s="1">
-        <v>-311.486000</v>
+        <v>-311.48599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>25592.016909</v>
+        <v>25592.016909000002</v>
       </c>
       <c r="G23" s="1">
-        <v>7.108894</v>
+        <v>7.1088940000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I23" s="1">
-        <v>-268.134000</v>
+        <v>-268.13400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>25602.178445</v>
+        <v>25602.178445000001</v>
       </c>
       <c r="L23" s="1">
-        <v>7.111716</v>
+        <v>7.1117160000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.990000</v>
+        <v>1304.99</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.915000</v>
+        <v>-204.91499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>25612.482800</v>
+        <v>25612.482800000002</v>
       </c>
       <c r="Q23" s="1">
         <v>7.114579</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.074000</v>
+        <v>-186.07400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>25622.575427</v>
       </c>
       <c r="V23" s="1">
-        <v>7.117382</v>
+        <v>7.1173820000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.141000</v>
+        <v>-172.14099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>25632.817781</v>
+        <v>25632.817781000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.120227</v>
+        <v>7.1202269999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.793000</v>
+        <v>-168.79300000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>25642.971881</v>
+        <v>25642.971881000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.123048</v>
+        <v>7.1230479999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.770000</v>
+        <v>-178.77</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>25653.217738</v>
+        <v>25653.217737999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.125894</v>
+        <v>7.1258939999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.590000</v>
+        <v>1380.59</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.434000</v>
+        <v>-208.434</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>25664.155552</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.128932</v>
+        <v>7.1289319999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.160000</v>
+        <v>1402.16</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.152000</v>
+        <v>-252.15199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>25675.303101</v>
+        <v>25675.303101000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.132029</v>
+        <v>7.1320290000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.040000</v>
+        <v>-312.04000000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>25686.176400</v>
+        <v>25686.1764</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.135049</v>
+        <v>7.1350490000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.900000</v>
+        <v>1445.9</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.093000</v>
+        <v>-364.09300000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>25697.170752</v>
+        <v>25697.170752000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.138103</v>
+        <v>7.1381030000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.970000</v>
+        <v>1530.97</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.081000</v>
+        <v>-612.08100000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>25708.207201</v>
+        <v>25708.207201000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.141169</v>
+        <v>7.1411689999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1685.160000</v>
+        <v>1685.16</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1056.720000</v>
+        <v>-1056.72</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>25718.791828</v>
+        <v>25718.791828000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.144109</v>
+        <v>7.1441090000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.890000</v>
+        <v>1978.89</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1826.910000</v>
+        <v>-1826.91</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>25730.180010</v>
+        <v>25730.18001</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.147272</v>
+        <v>7.1472720000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2366.740000</v>
+        <v>2366.7399999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2718.270000</v>
+        <v>-2718.27</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>25741.356582</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.150377</v>
+        <v>7.1503769999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.920000</v>
+        <v>2848.92</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3687.190000</v>
+        <v>-3687.19</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>25754.443268</v>
+        <v>25754.443267999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.154012</v>
+        <v>7.1540119999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4279.320000</v>
+        <v>4279.32</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6030.140000</v>
+        <v>-6030.14</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>25582.246184</v>
       </c>
@@ -6135,178 +6551,178 @@
         <v>7.106179</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.750000</v>
+        <v>1243.75</v>
       </c>
       <c r="D24" s="1">
-        <v>-311.371000</v>
+        <v>-311.37099999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>25592.443930</v>
+        <v>25592.443930000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.109012</v>
+        <v>7.1090119999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.190000</v>
+        <v>1269.19</v>
       </c>
       <c r="I24" s="1">
-        <v>-268.868000</v>
+        <v>-268.86799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>25602.571780</v>
+        <v>25602.571779999998</v>
       </c>
       <c r="L24" s="1">
-        <v>7.111825</v>
+        <v>7.1118249999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.530000</v>
+        <v>1305.53</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.767000</v>
+        <v>-204.767</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>25612.832479</v>
+        <v>25612.832479000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.114676</v>
+        <v>7.1146760000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.140000</v>
+        <v>1317.14</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.049000</v>
+        <v>-186.04900000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>25622.919618</v>
       </c>
       <c r="V24" s="1">
-        <v>7.117478</v>
+        <v>7.1174780000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.200000</v>
+        <v>1330.2</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.082000</v>
+        <v>-172.08199999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>25633.164980</v>
+        <v>25633.164980000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.120324</v>
+        <v>7.1203240000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.370000</v>
+        <v>1347.37</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.012000</v>
+        <v>-169.012</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>25643.320104</v>
+        <v>25643.320103999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.123144</v>
+        <v>7.1231439999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>25653.634378</v>
+        <v>25653.634377999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.126010</v>
+        <v>7.12601</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.620000</v>
+        <v>1380.62</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.463000</v>
+        <v>-208.46299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>25664.571164</v>
+        <v>25664.571164000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.129048</v>
+        <v>7.1290480000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.130000</v>
+        <v>1402.13</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.155000</v>
+        <v>-252.155</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>25675.619548</v>
+        <v>25675.619547999999</v>
       </c>
       <c r="AU24" s="1">
         <v>7.132117</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.620000</v>
+        <v>1426.62</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.019000</v>
+        <v>-312.01900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>25686.535038</v>
+        <v>25686.535038000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.135149</v>
+        <v>7.1351490000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.890000</v>
+        <v>1445.89</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.027000</v>
+        <v>-364.02699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>25697.532800</v>
+        <v>25697.532800000001</v>
       </c>
       <c r="BE24" s="1">
         <v>7.138204</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.960000</v>
+        <v>1530.96</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.097000</v>
+        <v>-612.09699999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>25708.581682</v>
@@ -6315,165 +6731,165 @@
         <v>7.141273</v>
       </c>
       <c r="BK24" s="1">
-        <v>1685.120000</v>
+        <v>1685.12</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1056.640000</v>
+        <v>-1056.6400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>25719.543763</v>
+        <v>25719.543763000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.144318</v>
+        <v>7.1443180000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.800000</v>
+        <v>1978.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1827.000000</v>
+        <v>-1827</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>25730.610004</v>
+        <v>25730.610003999998</v>
       </c>
       <c r="BT24" s="1">
         <v>7.147392</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.350000</v>
+        <v>2366.35</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2718.350000</v>
+        <v>-2718.35</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>25741.778932</v>
+        <v>25741.778932000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.150494</v>
+        <v>7.1504940000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2848.590000</v>
+        <v>2848.59</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3686.560000</v>
+        <v>-3686.56</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>25755.158996</v>
+        <v>25755.158995999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.154211</v>
+        <v>7.1542110000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4273.400000</v>
+        <v>4273.3999999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6014.130000</v>
+        <v>-6014.13</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>25582.623143</v>
+        <v>25582.623143000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.106284</v>
+        <v>7.1062839999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.180000</v>
+        <v>1244.18</v>
       </c>
       <c r="D25" s="1">
-        <v>-311.513000</v>
+        <v>-311.51299999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>25592.726686</v>
+        <v>25592.726686000002</v>
       </c>
       <c r="G25" s="1">
-        <v>7.109091</v>
+        <v>7.1090910000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.030000</v>
+        <v>1270.03</v>
       </c>
       <c r="I25" s="1">
-        <v>-267.924000</v>
+        <v>-267.92399999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>25602.919932</v>
+        <v>25602.919932000001</v>
       </c>
       <c r="L25" s="1">
-        <v>7.111922</v>
+        <v>7.1119219999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.260000</v>
+        <v>1305.26</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.832000</v>
+        <v>-204.83199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>25613.180175</v>
+        <v>25613.180175000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.114772</v>
+        <v>7.1147720000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.110000</v>
+        <v>1317.11</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.093000</v>
+        <v>-186.09299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>25623.262850</v>
+        <v>25623.262849999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.117573</v>
+        <v>7.1175730000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.029000</v>
+        <v>-172.029</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>25633.576660</v>
+        <v>25633.576659999999</v>
       </c>
       <c r="AA25" s="1">
         <v>7.120438</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.675000</v>
+        <v>-168.67500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>25643.732742</v>
@@ -6482,422 +6898,423 @@
         <v>7.123259</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.130000</v>
+        <v>1360.13</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.731000</v>
+        <v>-178.73099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>25653.923049</v>
+        <v>25653.923049000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.126090</v>
+        <v>7.1260899999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.570000</v>
+        <v>1380.57</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.416000</v>
+        <v>-208.416</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>25664.875745</v>
+        <v>25664.875745000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.129132</v>
+        <v>7.1291320000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.130000</v>
+        <v>1402.13</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.133000</v>
+        <v>-252.13300000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>25675.983644</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.132218</v>
+        <v>7.1322179999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.610000</v>
+        <v>1426.61</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.015000</v>
+        <v>-312.01499999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>25686.895102</v>
+        <v>25686.895101999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>7.135249</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.870000</v>
+        <v>1445.87</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.053000</v>
+        <v>-364.053</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>25697.892895</v>
+        <v>25697.892895000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.138304</v>
+        <v>7.1383039999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.030000</v>
+        <v>1531.03</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.067000</v>
+        <v>-612.06700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>25709.330672</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.141481</v>
+        <v>7.1414809999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1685.130000</v>
+        <v>1685.13</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1056.620000</v>
+        <v>-1056.6199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>25720.006034</v>
+        <v>25720.006034000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.144446</v>
+        <v>7.1444460000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.880000</v>
+        <v>1978.88</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1826.800000</v>
+        <v>-1826.8</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>25731.022677</v>
+        <v>25731.022677000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.147506</v>
+        <v>7.1475059999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.260000</v>
+        <v>2366.2600000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2718.470000</v>
+        <v>-2718.47</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>25742.199556</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.150611</v>
+        <v>7.1506109999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2848.890000</v>
+        <v>2848.89</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3686.840000</v>
+        <v>-3686.84</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>25755.585556</v>
+        <v>25755.585556000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.154329</v>
+        <v>7.1543289999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>4257.780000</v>
+        <v>4257.78</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6021.070000</v>
+        <v>-6021.07</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>25582.965879</v>
+        <v>25582.965878999999</v>
       </c>
       <c r="B26" s="1">
-        <v>7.106379</v>
+        <v>7.1063789999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="D26" s="1">
-        <v>-311.840000</v>
+        <v>-311.83999999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>25593.069547</v>
+        <v>25593.069546999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.109186</v>
+        <v>7.1091860000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.772000</v>
+        <v>-268.77199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>25603.264157</v>
+        <v>25603.264157000001</v>
       </c>
       <c r="L26" s="1">
         <v>7.112018</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.621000</v>
+        <v>-204.62100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>25613.597311</v>
+        <v>25613.597311000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.114888</v>
+        <v>7.1148879999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.110000</v>
+        <v>1317.11</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.115000</v>
+        <v>-186.11500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>25623.680482</v>
       </c>
       <c r="V26" s="1">
-        <v>7.117689</v>
+        <v>7.1176890000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.160000</v>
+        <v>1330.16</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.036000</v>
+        <v>-172.036</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>25633.870789</v>
+        <v>25633.870789000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.120520</v>
+        <v>7.12052</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.440000</v>
+        <v>1347.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.789000</v>
+        <v>-168.78899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>25644.022934</v>
+        <v>25644.022934000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.123340</v>
+        <v>7.1233399999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.060000</v>
+        <v>1360.06</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.650000</v>
+        <v>-178.65</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>25654.271770</v>
+        <v>25654.271769999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.126187</v>
+        <v>7.1261869999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.471000</v>
+        <v>-208.471</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>25665.274490</v>
+        <v>25665.27449</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.129243</v>
+        <v>7.1292429999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.110000</v>
+        <v>1402.11</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.178000</v>
+        <v>-252.178</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>25676.350651</v>
+        <v>25676.350651000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.132320</v>
+        <v>7.13232</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.630000</v>
+        <v>1426.63</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.021000</v>
+        <v>-312.02100000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>25687.611111</v>
+        <v>25687.611110999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.135448</v>
+        <v>7.1354480000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.890000</v>
+        <v>1445.89</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.092000</v>
+        <v>-364.09199999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>25698.616062</v>
+        <v>25698.616062000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.138504</v>
+        <v>7.1385040000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.010000</v>
+        <v>1531.01</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.019000</v>
+        <v>-612.01900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>25709.709263</v>
+        <v>25709.709263000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.141586</v>
+        <v>7.1415860000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1685.070000</v>
+        <v>1685.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1056.630000</v>
+        <v>-1056.6300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>25720.420690</v>
+        <v>25720.420689999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.144561</v>
+        <v>7.1445610000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1826.840000</v>
+        <v>-1826.84</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>25731.453731</v>
+        <v>25731.453731000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.147626</v>
+        <v>7.1476259999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.630000</v>
+        <v>2365.63</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2718.420000</v>
+        <v>-2718.42</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>25742.959891</v>
+        <v>25742.959890999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.150822</v>
+        <v>7.1508219999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2848.430000</v>
+        <v>2848.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3686.100000</v>
+        <v>-3686.1</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>25755.988307</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.154441</v>
+        <v>7.1544410000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>4266.440000</v>
+        <v>4266.4399999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6035.240000</v>
+        <v>-6035.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>